--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/data/authority.flow.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/data/authority.flow.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/lm/r14tlhyj7fncnytfwf3v8dc00000gn/T/tmp-16594-wMC3lNdMJj6L/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1520E2-90B7-704E-89DF-FAA0A0834C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A744517-4AC7-4E46-8435-4334A109077F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63220" yWindow="6160" windowWidth="38400" windowHeight="17840" activeTab="1" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="63220" yWindow="6160" windowWidth="38400" windowHeight="17840" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-RULE" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>key</t>
   </si>
@@ -314,6 +314,18 @@
   </si>
   <si>
     <t>DELAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>io.vertx.tp.rbac.ruler.HSDimDao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:authority/auth.flow/dm.condition.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:authority/auth.flow/dm.mapping.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -945,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
   <dimension ref="A3:P6"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
@@ -961,10 +973,10 @@
     <col min="10" max="10" width="46.1640625" style="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="47.33203125" style="13" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="49.5" style="13" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="47.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="40.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="66.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="61" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
@@ -1130,12 +1142,18 @@
       <c r="L6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="10"/>
+      <c r="M6" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="N6" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
+      <c r="O6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1151,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBA6181-C1FB-1A46-88E9-BFF81B142D2D}">
   <dimension ref="A3:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18"/>

--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/data/authority.flow.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/data/authority.flow.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/lm/r14tlhyj7fncnytfwf3v8dc00000gn/T/tmp-16594-wMC3lNdMJj6L/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/lm/r14tlhyj7fncnytfwf3v8dc00000gn/T/tmp-16594-JnsOJwX9epm7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A744517-4AC7-4E46-8435-4334A109077F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A665BE4E-C867-874F-BAC0-C4D67F87D639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63220" yWindow="6160" windowWidth="38400" windowHeight="17840" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="63220" yWindow="3660" windowWidth="38400" windowHeight="20340" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-RULE" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="84">
   <si>
     <t>key</t>
   </si>
@@ -293,10 +293,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rule.flow.definition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JSON:authority/auth.flow/ui.condition.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,6 +322,48 @@
   </si>
   <si>
     <t>JSON:authority/auth.flow/dm.mapping.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6281c815-a319-4118-aa29-18e4b182f212</t>
+  </si>
+  <si>
+    <t>9167c039-687e-4141-9855-e6d588cd1d4c</t>
+  </si>
+  <si>
+    <t>rule.flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule.flow.queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队列权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule.flow.action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>io.vertx.tp.rbac.ruler.HSUiArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父PATH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parentId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -955,35 +993,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A3:P6"/>
+  <dimension ref="A3:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="45.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="46.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="47.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="49.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="47.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="40.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="66.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="49.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="46" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="49.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="61" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1006,158 +1044,272 @@
       <c r="N3" s="28"/>
       <c r="O3" s="28"/>
       <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="K5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="L5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="M5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="N5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="O5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="P5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="Q5" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="11">
+        <v>2</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="11">
-        <v>2</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="9" t="s">
-        <v>68</v>
+      <c r="J6" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="N6" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="N6" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="O6" s="9" t="s">
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="9" t="str">
+        <f>A$6</f>
+        <v>9455c4f4-dfcc-4cb4-a31e-6dcf5772e6ed</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="P6" s="9" t="s">
-        <v>73</v>
+      <c r="O7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="9" t="str">
+        <f>A$6</f>
+        <v>9455c4f4-dfcc-4cb4-a31e-6dcf5772e6ed</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="11">
+        <v>2</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C3:P3"/>
+    <mergeCell ref="C3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/data/authority.flow.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/data/authority.flow.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/lm/r14tlhyj7fncnytfwf3v8dc00000gn/T/tmp-16594-JnsOJwX9epm7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/lm/r14tlhyj7fncnytfwf3v8dc00000gn/T/tmp-37191-rF78tLiOujAo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A665BE4E-C867-874F-BAC0-C4D67F87D639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319F58EF-945C-524A-B6E4-9E5DDA38B382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="63220" yWindow="3660" windowWidth="38400" windowHeight="20340" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -351,10 +351,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>io.vertx.tp.rbac.ruler.HSUiArea</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -364,6 +360,10 @@
   </si>
   <si>
     <t>parentId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAGER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -996,7 +996,7 @@
   <dimension ref="A3:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:Q3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
@@ -1051,7 +1051,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>18</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>5</v>
@@ -1179,7 +1179,7 @@
         <v>65</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>67</v>
@@ -1218,7 +1218,7 @@
         <v>76</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>41</v>
@@ -1270,7 +1270,7 @@
         <v>79</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>41</v>

--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/data/authority.flow.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/data/authority.flow.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/lm/r14tlhyj7fncnytfwf3v8dc00000gn/T/tmp-37191-rF78tLiOujAo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/lm/r14tlhyj7fncnytfwf3v8dc00000gn/T/tmp-37191-xqnJf3Po2pZB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319F58EF-945C-524A-B6E4-9E5DDA38B382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73F0672-59C7-D542-A4CB-03F0BB8F02EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63220" yWindow="3660" windowWidth="38400" windowHeight="20340" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="38500" yWindow="3660" windowWidth="38400" windowHeight="20340" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-RULE" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="83">
   <si>
     <t>key</t>
   </si>
@@ -293,10 +293,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JSON:authority/auth.flow/ui.condition.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JSON:authority/auth.flow/ui.surface.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -343,10 +339,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>队列权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rule.flow.action</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -364,6 +356,10 @@
   </si>
   <si>
     <t>EAGER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表权限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -996,7 +992,7 @@
   <dimension ref="A3:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
@@ -1051,7 +1047,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>18</v>
@@ -1104,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>5</v>
@@ -1161,10 +1157,10 @@
         <v>64</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>41</v>
@@ -1175,50 +1171,48 @@
       <c r="H6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="10"/>
+      <c r="J6" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="M6" s="11" t="s">
         <v>30</v>
       </c>
       <c r="N6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q6" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="9" t="str">
         <f>A$6</f>
         <v>9455c4f4-dfcc-4cb4-a31e-6dcf5772e6ed</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>41</v>
@@ -1229,48 +1223,32 @@
       <c r="H7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>65</v>
-      </c>
+      <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>72</v>
-      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="9" t="str">
         <f>A$6</f>
         <v>9455c4f4-dfcc-4cb4-a31e-6dcf5772e6ed</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>79</v>
-      </c>
       <c r="E8" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>41</v>
@@ -1281,31 +1259,15 @@
       <c r="H8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>65</v>
-      </c>
+      <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>72</v>
-      </c>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/data/authority.flow.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/data/authority.flow.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/lm/r14tlhyj7fncnytfwf3v8dc00000gn/T/tmp-37191-xqnJf3Po2pZB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/lm/r14tlhyj7fncnytfwf3v8dc00000gn/T/tmp-22948-k6SwkU82ogL4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73F0672-59C7-D542-A4CB-03F0BB8F02EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E91774D-BA33-8542-B87C-DC3E17EC1183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38500" yWindow="3660" windowWidth="38400" windowHeight="20340" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="58380" yWindow="-1520" windowWidth="38400" windowHeight="20340" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-RULE" sheetId="2" r:id="rId1"/>
@@ -309,10 +309,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>io.vertx.tp.rbac.ruler.HSDimDao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JSON:authority/auth.flow/dm.condition.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -360,6 +356,10 @@
   </si>
   <si>
     <t>列表权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>io.vertx.tp.rbac.ruler.HSDimArea</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -991,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
   <dimension ref="A3:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
@@ -1047,7 +1047,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>18</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>5</v>
@@ -1157,7 +1157,7 @@
         <v>64</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>68</v>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>66</v>
@@ -1185,34 +1185,34 @@
         <v>30</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O6" s="9" t="s">
         <v>67</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="9" t="str">
         <f>A$6</f>
         <v>9455c4f4-dfcc-4cb4-a31e-6dcf5772e6ed</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>41</v>
@@ -1235,20 +1235,20 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="9" t="str">
         <f>A$6</f>
         <v>9455c4f4-dfcc-4cb4-a31e-6dcf5772e6ed</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>77</v>
-      </c>
       <c r="E8" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>41</v>

--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/data/authority.flow.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/data/authority.flow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/lm/r14tlhyj7fncnytfwf3v8dc00000gn/T/tmp-22948-k6SwkU82ogL4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E91774D-BA33-8542-B87C-DC3E17EC1183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB589D02-55A3-F446-86F4-57D986BCE55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58380" yWindow="-1520" windowWidth="38400" windowHeight="20340" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="-65900" yWindow="880" windowWidth="45220" windowHeight="19420" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-RULE" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
   <si>
     <t>key</t>
   </si>
@@ -305,10 +305,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DELAY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JSON:authority/auth.flow/dm.condition.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -360,6 +356,22 @@
   </si>
   <si>
     <t>io.vertx.tp.rbac.ruler.HSDimArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>io.vertx.tp.rbac.ruler.HSUiNorm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:authority/auth.flow/queue/ui.config.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:authority/auth.flow/queue/ui.surface.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:authority/auth.flow/queue/ui.condition.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -991,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
   <dimension ref="A3:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
@@ -1003,10 +1015,10 @@
     <col min="4" max="4" width="17.83203125" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="11.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="55.83203125" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="52.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="53.5" style="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.33203125" style="13" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="49.5" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="46" style="3" bestFit="1" customWidth="1"/>
@@ -1047,7 +1059,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>18</v>
@@ -1100,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>5</v>
@@ -1157,10 +1169,10 @@
         <v>64</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>41</v>
@@ -1171,9 +1183,8 @@
       <c r="H6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="10"/>
       <c r="J6" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>66</v>
@@ -1185,34 +1196,34 @@
         <v>30</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O6" s="9" t="s">
         <v>67</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="9" t="str">
         <f>A$6</f>
         <v>9455c4f4-dfcc-4cb4-a31e-6dcf5772e6ed</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>41</v>
@@ -1223,10 +1234,18 @@
       <c r="H7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="I7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="M7" s="11"/>
       <c r="N7" s="10"/>
       <c r="O7" s="9"/>
@@ -1235,20 +1254,20 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="9" t="str">
         <f>A$6</f>
         <v>9455c4f4-dfcc-4cb4-a31e-6dcf5772e6ed</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>76</v>
-      </c>
       <c r="E8" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>41</v>

--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/data/authority.flow.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/data/authority.flow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB589D02-55A3-F446-86F4-57D986BCE55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A11AB7-E41F-904F-9BC8-18A29EFD3566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-65900" yWindow="880" windowWidth="45220" windowHeight="19420" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22440" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-RULE" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
   <si>
     <t>key</t>
   </si>
@@ -372,6 +372,18 @@
   </si>
   <si>
     <t>JSON:authority/auth.flow/queue/ui.condition.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:authority/auth.flow/action/ui.condition.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:authority/auth.flow/action/ui.config.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:authority/auth.flow/action/ui.surface.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1003,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
   <dimension ref="A3:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
@@ -1278,10 +1290,18 @@
       <c r="H8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="I8" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="M8" s="11"/>
       <c r="N8" s="10"/>
       <c r="O8" s="9"/>

--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/data/authority.flow.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/data/authority.flow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A11AB7-E41F-904F-9BC8-18A29EFD3566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4348A20C-451C-154F-A617-90F52C51A873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22440" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22420" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-RULE" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
   <si>
     <t>key</t>
   </si>
@@ -384,6 +384,10 @@
   </si>
   <si>
     <t>JSON:authority/auth.flow/action/ui.surface.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1015,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
   <dimension ref="A3:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
@@ -1288,7 +1292,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>86</v>

--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/data/authority.flow.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/data/authority.flow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4348A20C-451C-154F-A617-90F52C51A873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904D3D69-5DDB-A54F-BE06-133D7F269F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22420" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -327,10 +327,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>操作权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rule.flow.action</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -351,10 +347,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>列表权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>io.vertx.tp.rbac.ruler.HSDimArea</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -388,6 +380,14 @@
   </si>
   <si>
     <t>WEB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程视图权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程操作权限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1020,14 +1020,14 @@
   <dimension ref="A3:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="45.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.83203125" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="11.33203125" style="12" bestFit="1" customWidth="1"/>
@@ -1075,7 +1075,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>18</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>5</v>
@@ -1188,7 +1188,7 @@
         <v>72</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>41</v>
@@ -1200,7 +1200,7 @@
         <v>8</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>66</v>
@@ -1218,7 +1218,7 @@
         <v>67</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q6" s="9" t="s">
         <v>69</v>
@@ -1233,13 +1233,13 @@
         <v>9455c4f4-dfcc-4cb4-a31e-6dcf5772e6ed</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>73</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>41</v>
@@ -1251,16 +1251,16 @@
         <v>8</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J7" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="10"/>
@@ -1277,13 +1277,13 @@
         <v>9455c4f4-dfcc-4cb4-a31e-6dcf5772e6ed</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>75</v>
-      </c>
       <c r="E8" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>41</v>
@@ -1292,19 +1292,19 @@
         <v>2</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I8" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>88</v>
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="10"/>

--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/data/authority.flow.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/data/authority.flow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904D3D69-5DDB-A54F-BE06-133D7F269F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FCEBE4-E69C-454C-9FDF-3E5AB8482085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22420" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
   <si>
     <t>key</t>
   </si>
@@ -376,10 +376,6 @@
   </si>
   <si>
     <t>JSON:authority/auth.flow/action/ui.surface.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1020,7 +1016,7 @@
   <dimension ref="A3:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
@@ -1233,7 +1229,7 @@
         <v>9455c4f4-dfcc-4cb4-a31e-6dcf5772e6ed</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>73</v>
@@ -1277,7 +1273,7 @@
         <v>9455c4f4-dfcc-4cb4-a31e-6dcf5772e6ed</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>74</v>
@@ -1292,7 +1288,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>84</v>

--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/data/authority.flow.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/data/authority.flow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FCEBE4-E69C-454C-9FDF-3E5AB8482085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B7D9E5-F913-634D-8F52-A81DC2482A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22420" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="-44300" yWindow="-4560" windowWidth="38400" windowHeight="20500" activeTab="1" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-RULE" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="90">
   <si>
     <t>key</t>
   </si>
@@ -385,6 +385,9 @@
   <si>
     <t>流程操作权限</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule.flow.queue</t>
   </si>
 </sst>
 </file>
@@ -1015,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
   <dimension ref="A3:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
@@ -1320,10 +1323,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBA6181-C1FB-1A46-88E9-BFF81B142D2D}">
-  <dimension ref="A3:L5"/>
+  <dimension ref="A3:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18"/>
@@ -1442,6 +1445,11 @@
         <v>62</v>
       </c>
     </row>
+    <row r="6" spans="1:12">
+      <c r="B6" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C3:L3"/>

--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/data/authority.flow.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/data/authority.flow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B7D9E5-F913-634D-8F52-A81DC2482A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35750933-616C-AC47-ADA1-85D03679ACCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-44300" yWindow="-4560" windowWidth="38400" windowHeight="20500" activeTab="1" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
   <si>
     <t>key</t>
   </si>
@@ -385,9 +385,6 @@
   <si>
     <t>流程操作权限</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rule.flow.queue</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1323,7 @@
   <dimension ref="A3:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18"/>
@@ -1446,9 +1443,7 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="10" t="s">
-        <v>89</v>
-      </c>
+      <c r="B6" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/data/authority.flow.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/data/authority.flow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35750933-616C-AC47-ADA1-85D03679ACCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDA313A-014F-5F40-9064-78DAD5948BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-44300" yWindow="-4560" windowWidth="38400" windowHeight="20500" activeTab="1" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="-51040" yWindow="-300" windowWidth="38400" windowHeight="18180" activeTab="1" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-RULE" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="100">
   <si>
     <t>key</t>
   </si>
@@ -385,6 +385,48 @@
   <si>
     <t>流程操作权限</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule.flow.queue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.views.fetch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule.flow.action</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.op.by.control</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>63599abc-280f-476d-b4c1-eb7de79dbbaa</t>
+  </si>
+  <si>
+    <t>60017e45-a154-499e-a120-099e21ea3902</t>
+  </si>
+  <si>
+    <t>IN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:authority/auth.flow/res.views.fetch/h.mapping.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:authority/auth.flow/res.views.fetch/h.config.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:authority/auth.flow/res.op.by.control/h.mapping.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:authority/auth.flow/res.op.by.control/h.config.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1320,17 +1362,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBA6181-C1FB-1A46-88E9-BFF81B142D2D}">
-  <dimension ref="A3:L6"/>
+  <dimension ref="A3:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="47.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="65.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="62.5" style="13" bestFit="1" customWidth="1"/>
@@ -1443,7 +1485,56 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="10"/>
+      <c r="A6" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
